--- a/Raw_Data/F037_For_PR_FLU.xlsx
+++ b/Raw_Data/F037_For_PR_FLU.xlsx
@@ -1,45 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Mediven_Raw_Material_Stock_Card\Raw_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E830E-3B38-4AE1-B58F-09FA3C72E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18520" windowHeight="7670" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="F037 template cassette" sheetId="1" r:id="rId1"/>
     <sheet name="Uncut Sheet" sheetId="3" r:id="rId2"/>
-    <sheet name="Cassette" sheetId="2" r:id="rId3"/>
+    <sheet name="Pipette" sheetId="4" r:id="rId3"/>
+    <sheet name="Cassette" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Cassette!$A$1:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'F037 template cassette'!$A$1:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Uncut Sheet'!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette!$A$1:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>Doc. No</t>
   </si>
@@ -92,6 +76,9 @@
     <t>25 TESTS/BOX</t>
   </si>
   <si>
+    <t>Balance Quantity</t>
+  </si>
+  <si>
     <t>24.07.2022</t>
   </si>
   <si>
@@ -100,18 +87,19 @@
   <si>
     <t>25.07.2022</t>
   </si>
-  <si>
-    <t>Balance Quantity</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +152,152 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +310,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -645,19 +963,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -667,15 +1266,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,9 +1334,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,6 +1341,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -742,136 +1368,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -887,19 +1485,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -913,7 +1505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85725" y="29210"/>
-          <a:ext cx="1767840" cy="307340"/>
+          <a:ext cx="1766570" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,21 +1527,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3213100" y="19050"/>
-          <a:ext cx="3134360" cy="327025"/>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,7 +1698,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1128,19 +1714,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1154,7 +1734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85725" y="29210"/>
-          <a:ext cx="1767840" cy="307340"/>
+          <a:ext cx="1766570" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,21 +1756,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2841625" y="47625"/>
-          <a:ext cx="3324860" cy="320675"/>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,7 +1927,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1369,19 +1943,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1395,7 +1963,236 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85725" y="29210"/>
-          <a:ext cx="1767840" cy="307340"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,21 +2214,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3213100" y="19050"/>
-          <a:ext cx="3134360" cy="327025"/>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,80 +2636,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="48" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="52">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
         <v>41473</v>
       </c>
-      <c r="H3" s="53"/>
-    </row>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
     <row r="5" spans="1:14">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="J5" t="s">
         <v>5</v>
       </c>
@@ -1927,1445 +2719,1979 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="57"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="57"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="58"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="37"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="24"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="24"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="24"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait"/>
+  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="48" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="52">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>41473</v>
       </c>
-      <c r="G3" s="53"/>
-    </row>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
     <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="57"/>
-      <c r="B6" s="3" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="57"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="58"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="60"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="61">
         <v>20</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="59">
-        <v>20</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63">
         <v>2</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="35">
+      <c r="E12" s="63"/>
+      <c r="F12" s="64">
         <f>B12-D12</f>
         <v>18</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="G12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="62">
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="65">
         <f>F12</f>
         <v>18</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="40">
+      <c r="C13" s="66"/>
+      <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="35">
+      <c r="E13" s="1"/>
+      <c r="F13" s="64">
         <f t="shared" ref="F13" si="0">B13-D13</f>
         <v>13</v>
       </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="62">
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="65">
         <f>F13</f>
         <v>13</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="19"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="24"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="41"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="19"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="19"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="19"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="19"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="60"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="61">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63">
+        <v>200</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64">
+        <f>B12-D12</f>
+        <v>4800</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="65">
+        <f>F12</f>
+        <v>4800</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="64">
+        <f>B13-D13</f>
+        <v>3600</v>
+      </c>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="65">
+        <f>F13</f>
+        <v>3600</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="41"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="41"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="41"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="41"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="41"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="41"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="41"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="41"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="41"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="41"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="41"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="41"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="41"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="41"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="41"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="41"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="41"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="41"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="41"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="41"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="41"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="41"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="45"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="41"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="41"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="41"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="41"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="41"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="52">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
         <v>41473</v>
       </c>
-      <c r="H3" s="53"/>
-    </row>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
     <row r="5" spans="1:8">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="57"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="57"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="58"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="8" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="36">
         <v>5000</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="37">
         <v>200</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="35">
         <f>B12-C12</f>
         <v>4800</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="38">
         <v>5001</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="39">
         <v>200</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="35">
         <f>E12-F12</f>
         <v>4801</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20">
+      <c r="H12" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
         <f>D12</f>
         <v>4800</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20">
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42">
         <f>G12</f>
         <v>4801</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="24"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="24"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="24"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Raw_Data/F037_For_PR_FLU.xlsx
+++ b/Raw_Data/F037_For_PR_FLU.xlsx
@@ -4,24 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670" activeTab="2"/>
+    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Uncut Sheet" sheetId="3" r:id="rId1"/>
-    <sheet name="Cassette" sheetId="2" r:id="rId2"/>
-    <sheet name="Pipette" sheetId="4" r:id="rId3"/>
+    <sheet name="PR_FLU_Uncut_Sheet" sheetId="3" r:id="rId1"/>
+    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId2"/>
+    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId3"/>
+    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId4"/>
+    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId5"/>
+    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId6"/>
+    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId7"/>
+    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Uncut Sheet'!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_FLU_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PR_FLU_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PR_FLU_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FSV_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FSV_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FSVA_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
   <si>
     <t>Doc. No</t>
   </si>
@@ -65,19 +75,25 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>24.07.2022</t>
+    <t>20.07.2022</t>
   </si>
   <si>
     <t>LOT NUMBER</t>
   </si>
   <si>
-    <t>25.07.2022</t>
+    <t>2024-06</t>
   </si>
   <si>
     <t>Caps</t>
   </si>
   <si>
     <t>Panel</t>
+  </si>
+  <si>
+    <t>PR-FSV</t>
+  </si>
+  <si>
+    <t>2024-05</t>
   </si>
 </sst>
 </file>
@@ -86,10 +102,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -145,14 +161,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -161,23 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +184,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -207,7 +253,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -216,7 +262,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,60 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,43 +404,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,43 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,20 +972,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,17 +1013,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,20 +1039,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,151 +1060,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,6 +1754,235 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1918,7 +2163,923 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2408,7 +3569,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C14"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2541,46 +3702,36 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33">
-        <f t="shared" ref="F13" si="0">B13-D13</f>
-        <v>13</v>
-      </c>
+      <c r="F13" s="33"/>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35"/>
-      <c r="B14" s="36">
-        <f>F13</f>
-        <v>13</v>
-      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
@@ -2931,8 +4082,522 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1145</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>198</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>947</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>947</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3083,24 +4748,24 @@
         <v>14</v>
       </c>
       <c r="B12" s="52">
-        <v>5000</v>
+        <v>3688</v>
       </c>
       <c r="C12" s="53">
-        <v>200</v>
+        <v>2475</v>
       </c>
       <c r="D12" s="29">
         <f>B12-C12</f>
-        <v>4800</v>
+        <v>1213</v>
       </c>
       <c r="E12" s="54">
-        <v>5001</v>
+        <v>3778</v>
       </c>
       <c r="F12" s="55">
-        <v>200</v>
+        <v>2475</v>
       </c>
       <c r="G12" s="29">
         <f>E12-F12</f>
-        <v>4801</v>
+        <v>1303</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>15</v>
@@ -3110,13 +4775,13 @@
       <c r="A13" s="35"/>
       <c r="B13" s="56">
         <f>D12</f>
-        <v>4800</v>
+        <v>1213</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="35"/>
       <c r="E13" s="56">
         <f>G12</f>
-        <v>4801</v>
+        <v>1303</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="35"/>
@@ -3441,13 +5106,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3580,46 +5245,2093 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>5000</v>
+        <v>3625</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>200</v>
+        <v>2475</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>4800</v>
+        <v>1150</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>4800</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="1">
-        <v>1200</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33">
-        <f>B13-D13</f>
-        <v>3600</v>
-      </c>
+      <c r="F13" s="33"/>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35"/>
-      <c r="B14" s="36">
-        <f>F13</f>
-        <v>3600</v>
-      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>3175</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>700</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>2475</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>2475</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>10</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>68</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>68</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="52">
+        <v>11594</v>
+      </c>
+      <c r="C12" s="53">
+        <v>125</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12-C12</f>
+        <v>11469</v>
+      </c>
+      <c r="E12" s="54">
+        <v>11323</v>
+      </c>
+      <c r="F12" s="55">
+        <v>125</v>
+      </c>
+      <c r="G12" s="29">
+        <f>E12-F12</f>
+        <v>11198</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="56">
+        <f>D12</f>
+        <v>11469</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="56">
+        <f>G12</f>
+        <v>11198</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="35"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="35"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="35"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="35"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="35"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="35"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="35"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="35"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="35"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="35"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="35"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="35"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="35"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>39</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>20</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>19</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>19</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>

--- a/Raw_Data/F037_For_PR_FLU.xlsx
+++ b/Raw_Data/F037_For_PR_FLU.xlsx
@@ -4,34 +4,42 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PR_FLU_Uncut_Sheet" sheetId="3" r:id="rId1"/>
-    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId2"/>
-    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId3"/>
-    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId4"/>
-    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId5"/>
-    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId6"/>
-    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId7"/>
-    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId8"/>
+    <sheet name="PR_RSV_Uncut_Sheet" sheetId="10" r:id="rId2"/>
+    <sheet name="PR_ADE_Uncut_Sheet" sheetId="11" r:id="rId3"/>
+    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId4"/>
+    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId5"/>
+    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId6"/>
+    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId7"/>
+    <sheet name="PR_FSVA_Sterile_Swabs" sheetId="12" r:id="rId8"/>
+    <sheet name="PR_FSVA_Extraction_Tube" sheetId="13" r:id="rId9"/>
+    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId10"/>
+    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId11"/>
+    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_FLU_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Cassette!$A$1:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PR_FLU_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PR_FLU_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FSV_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FSV_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FSVA_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_FLU_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">PR_FSV_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">PR_FSV_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_FSVA_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PR_RSV_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_ADE_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FSVA_Sterile_Swabs!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">PR_FSVA_Extraction_Tube!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="23">
   <si>
     <t>Doc. No</t>
   </si>
@@ -81,6 +89,12 @@
     <t>LOT NUMBER</t>
   </si>
   <si>
+    <t>28.07.2022</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
     <t>2024-06</t>
   </si>
   <si>
@@ -102,10 +116,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -169,13 +183,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -191,6 +198,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -200,6 +222,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,6 +289,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -268,16 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,21 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,13 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +388,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,103 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +986,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -989,11 +1014,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,160 +1083,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,10 +1251,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1719,693 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1983,15 +2684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2000,8 +2701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="19050"/>
-          <a:ext cx="3138170" cy="327025"/>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2441,15 +3142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2458,8 +3159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,15 +3600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2916,8 +3617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="19050"/>
-          <a:ext cx="3138170" cy="327025"/>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3080,6 +3781,235 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4077,13 +5007,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4141,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4216,26 +5146,1569 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>1145</v>
+        <v>78</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>947</v>
+        <v>68</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>947</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="52">
+        <v>11594</v>
+      </c>
+      <c r="C12" s="53">
+        <v>125</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12-C12</f>
+        <v>11469</v>
+      </c>
+      <c r="E12" s="54">
+        <v>11323</v>
+      </c>
+      <c r="F12" s="55">
+        <v>125</v>
+      </c>
+      <c r="G12" s="29">
+        <f>E12-F12</f>
+        <v>11198</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="56">
+        <f>D12</f>
+        <v>11469</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="56">
+        <f>G12</f>
+        <v>11198</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="35"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="35"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="35"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="35"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="35"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="35"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="35"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="35"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="35"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="35"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="35"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="35"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="35"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>39</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>20</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>19</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>19</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30">
+        <v>32</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>5</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>27</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>27</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -4597,522 +7070,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
-    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <v>41473</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:8">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:8">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="52">
-        <v>3688</v>
-      </c>
-      <c r="C12" s="53">
-        <v>2475</v>
-      </c>
-      <c r="D12" s="29">
-        <f>B12-C12</f>
-        <v>1213</v>
-      </c>
-      <c r="E12" s="54">
-        <v>3778</v>
-      </c>
-      <c r="F12" s="55">
-        <v>2475</v>
-      </c>
-      <c r="G12" s="29">
-        <f>E12-F12</f>
-        <v>1303</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A13" s="35"/>
-      <c r="B13" s="56">
-        <f>D12</f>
-        <v>1213</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="56">
-        <f>G12</f>
-        <v>1303</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="35"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="35"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="35"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="35"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="35"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="35"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="35"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="35"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="35"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="35"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="35"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="35"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="35"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="35"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
-  <headerFooter/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -5242,29 +7200,543 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="30">
-        <v>3625</v>
+        <v>32</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>2475</v>
+        <v>4</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>1150</v>
+        <v>28</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>1150</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1145</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>198</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>947</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>947</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -5626,6 +8098,521 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="52">
+        <v>3688</v>
+      </c>
+      <c r="C12" s="53">
+        <v>2475</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12-C12</f>
+        <v>1213</v>
+      </c>
+      <c r="E12" s="54">
+        <v>3778</v>
+      </c>
+      <c r="F12" s="55">
+        <v>2475</v>
+      </c>
+      <c r="G12" s="29">
+        <f>E12-F12</f>
+        <v>1303</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="56">
+        <f>D12</f>
+        <v>1213</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="56">
+        <f>G12</f>
+        <v>1303</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="35"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="35"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="35"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="35"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="35"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="35"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="35"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="35"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="35"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="35"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="35"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="35"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="35"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5759,16 +8746,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>3175</v>
+        <v>3625</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>700</v>
+        <v>2475</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>2475</v>
+        <v>1150</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>15</v>
@@ -5778,521 +8765,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>2475</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
-    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
-        <v>41473</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:7">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:7">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="30">
-        <v>78</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
-        <v>10</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
-        <f>B12-D12</f>
-        <v>68</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36">
-        <f>F12</f>
-        <v>68</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -6654,521 +9127,6 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
-    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <v>41473</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:8">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:8">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="52">
-        <v>11594</v>
-      </c>
-      <c r="C12" s="53">
-        <v>125</v>
-      </c>
-      <c r="D12" s="29">
-        <f>B12-C12</f>
-        <v>11469</v>
-      </c>
-      <c r="E12" s="54">
-        <v>11323</v>
-      </c>
-      <c r="F12" s="55">
-        <v>125</v>
-      </c>
-      <c r="G12" s="29">
-        <f>E12-F12</f>
-        <v>11198</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A13" s="35"/>
-      <c r="B13" s="56">
-        <f>D12</f>
-        <v>11469</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="56">
-        <f>G12</f>
-        <v>11198</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="35"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="35"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="35"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="35"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="35"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="35"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="35"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="35"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="35"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="35"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="35"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="35"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="35"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="35"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
-  <headerFooter/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -7227,7 +9185,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -7302,26 +9260,1054 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>39</v>
+        <v>3175</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>19</v>
+        <v>2475</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>19</v>
+        <v>2475</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1547</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>260</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>1287</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>1287</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1547</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>260</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>1287</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>1287</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>

--- a/Raw_Data/F037_For_PR_FLU.xlsx
+++ b/Raw_Data/F037_For_PR_FLU.xlsx
@@ -4,42 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="9" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="PR_FLU_Uncut_Sheet" sheetId="3" r:id="rId1"/>
-    <sheet name="PR_RSV_Uncut_Sheet" sheetId="10" r:id="rId2"/>
-    <sheet name="PR_ADE_Uncut_Sheet" sheetId="11" r:id="rId3"/>
-    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId4"/>
-    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId5"/>
-    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId6"/>
-    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId7"/>
-    <sheet name="PR_FSVA_Sterile_Swabs" sheetId="12" r:id="rId8"/>
-    <sheet name="PR_FSVA_Extraction_Tube" sheetId="13" r:id="rId9"/>
-    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId10"/>
-    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId11"/>
-    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId12"/>
+    <sheet name="PR_FLU_Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="PR_FLU_Uncut_Sheet_2" sheetId="14" r:id="rId2"/>
+    <sheet name="PR_RSV_Uncut_Sheet" sheetId="10" r:id="rId3"/>
+    <sheet name="PR_ADE_Uncut_Sheet" sheetId="11" r:id="rId4"/>
+    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId5"/>
+    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId6"/>
+    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId7"/>
+    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId8"/>
+    <sheet name="PR_FSVA_Sterile_Swabs" sheetId="12" r:id="rId9"/>
+    <sheet name="PR_FSVA_Extraction_Tube" sheetId="13" r:id="rId10"/>
+    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId11"/>
+    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId12"/>
+    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PR_FLU_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_FLU_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">PR_FSV_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">PR_FSV_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_FSVA_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PR_RSV_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_ADE_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FSVA_Sterile_Swabs!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">PR_FSVA_Extraction_Tube!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FLU_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PR_FLU_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_FSV_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">PR_FSV_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">PR_FSVA_Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_RSV_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_ADE_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">PR_FSVA_Sterile_Swabs!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">PR_FSVA_Extraction_Tube!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PR_FLU_Uncut_Sheet_2!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="27">
   <si>
     <t>Doc. No</t>
   </si>
@@ -83,10 +85,16 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>20.07.2022</t>
+    <t>23.08.2022</t>
   </si>
   <si>
-    <t>LOT NUMBER</t>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>2024-07</t>
   </si>
   <si>
     <t>28.07.2022</t>
@@ -95,13 +103,19 @@
     <t>2024-01</t>
   </si>
   <si>
-    <t>2024-06</t>
+    <t>20.07.2022</t>
   </si>
   <si>
     <t>Caps</t>
   </si>
   <si>
     <t>Panel</t>
+  </si>
+  <si>
+    <t>06.08.2022</t>
+  </si>
+  <si>
+    <t>LOT NUMBER</t>
   </si>
   <si>
     <t>PR-FSV</t>
@@ -116,10 +130,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -189,36 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,17 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -289,8 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +305,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,9 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,67 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,19 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,31 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +439,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,35 +1002,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,6 +1069,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1086,148 +1100,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,10 +1265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1997,6 +2011,235 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2177,7 +2420,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3142,15 +3385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3159,8 +3402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="19050"/>
-          <a:ext cx="3138170" cy="327025"/>
+          <a:off x="2847975" y="47625"/>
+          <a:ext cx="3322320" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3371,15 +3614,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3388,8 +3631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4499,7 +4742,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4632,16 +4875,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>15</v>
@@ -4651,7 +4894,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -5013,7 +5256,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -5071,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5143,29 +5386,29 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
-        <v>78</v>
+        <v>1547</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>68</v>
+        <v>1287</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>68</v>
+        <v>1287</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -5527,6 +5770,520 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="30">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>10</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
+        <f>B12-D12</f>
+        <v>68</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36">
+        <f>F12</f>
+        <v>68</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
@@ -5588,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5638,14 +6395,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="44" t="s">
@@ -5675,7 +6432,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="52">
         <v>11594</v>
@@ -5698,7 +6455,7 @@
         <v>11198</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:8">
@@ -6036,7 +6793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -6100,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -6172,7 +6929,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
         <v>39</v>
@@ -6187,7 +6944,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -6556,7 +7313,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -6689,16 +7446,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="30">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>17</v>
@@ -6708,7 +7465,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -7200,29 +7957,29 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="30">
         <v>32</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -7584,7 +8341,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -7714,29 +8471,29 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="30">
-        <v>1145</v>
+        <v>32</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>947</v>
+        <v>28</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>947</v>
+        <v>28</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -8098,522 +8855,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
-    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <v>41473</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:8">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:8">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="52">
-        <v>3688</v>
-      </c>
-      <c r="C12" s="53">
-        <v>2475</v>
-      </c>
-      <c r="D12" s="29">
-        <f>B12-C12</f>
-        <v>1213</v>
-      </c>
-      <c r="E12" s="54">
-        <v>3778</v>
-      </c>
-      <c r="F12" s="55">
-        <v>2475</v>
-      </c>
-      <c r="G12" s="29">
-        <f>E12-F12</f>
-        <v>1303</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A13" s="35"/>
-      <c r="B13" s="56">
-        <f>D12</f>
-        <v>1213</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="56">
-        <f>G12</f>
-        <v>1303</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="35"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="35"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="35"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="35"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="35"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="35"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="35"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="35"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="35"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="35"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="35"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="35"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="35"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="35"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
-  <headerFooter/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -8743,19 +8985,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
-        <v>3625</v>
+        <v>1145</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>2475</v>
+        <v>198</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>1150</v>
+        <v>947</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>15</v>
@@ -8765,7 +9007,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>1150</v>
+        <v>947</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -9121,6 +9363,521 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="52">
+        <v>3331</v>
+      </c>
+      <c r="C12" s="53">
+        <v>695</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12-C12</f>
+        <v>2636</v>
+      </c>
+      <c r="E12" s="54">
+        <v>3331</v>
+      </c>
+      <c r="F12" s="55">
+        <v>695</v>
+      </c>
+      <c r="G12" s="29">
+        <f>E12-F12</f>
+        <v>2636</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="56">
+        <f>D12</f>
+        <v>2636</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="56">
+        <f>G12</f>
+        <v>2636</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="35"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="35"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="35"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="35"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="35"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="35"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="35"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="35"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="35"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="35"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="35"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="35"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="35"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -9257,29 +10014,29 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
-        <v>3175</v>
+        <v>3625</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>700</v>
+        <v>2475</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>2475</v>
+        <v>1150</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>2475</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -9771,29 +10528,29 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
-        <v>1547</v>
+        <v>3175</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33">
         <f>B12-D12</f>
-        <v>1287</v>
+        <v>2475</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>
       <c r="B13" s="36">
         <f>F12</f>
-        <v>1287</v>
+        <v>2475</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="1"/>
@@ -10154,8 +10911,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -10285,7 +11042,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="30">
         <v>1547</v>
@@ -10300,7 +11057,7 @@
         <v>1287</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">

--- a/Raw_Data/F037_For_PR_FLU.xlsx
+++ b/Raw_Data/F037_For_PR_FLU.xlsx
@@ -4,36 +4,36 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="9" activeTab="5"/>
+    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PR_FLU_Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
     <sheet name="PR_FLU_Uncut_Sheet_2" sheetId="14" r:id="rId2"/>
-    <sheet name="PR_RSV_Uncut_Sheet" sheetId="10" r:id="rId3"/>
-    <sheet name="PR_ADE_Uncut_Sheet" sheetId="11" r:id="rId4"/>
-    <sheet name="PR_FLU_Buffer" sheetId="5" r:id="rId5"/>
-    <sheet name="PR_FLU_Cassette" sheetId="2" r:id="rId6"/>
-    <sheet name="PR_FLU_Extraction_Tubes_Dropper" sheetId="4" r:id="rId7"/>
-    <sheet name="PR_FLU_Strerile_Swabs" sheetId="9" r:id="rId8"/>
-    <sheet name="PR_FSVA_Sterile_Swabs" sheetId="12" r:id="rId9"/>
-    <sheet name="PR_FSVA_Extraction_Tube" sheetId="13" r:id="rId10"/>
-    <sheet name="PR_FSV_Buffer" sheetId="7" r:id="rId11"/>
-    <sheet name="PR_FSV_Cassette" sheetId="6" r:id="rId12"/>
-    <sheet name="PR_FSVA_Buffer" sheetId="8" r:id="rId13"/>
+    <sheet name="PR_RSV_Uncut_Sheet_1" sheetId="10" r:id="rId3"/>
+    <sheet name="PR_ADE_Uncut_Sheet_1" sheetId="11" r:id="rId4"/>
+    <sheet name="PR_FLU_Buffer_1" sheetId="5" r:id="rId5"/>
+    <sheet name="PR_FLU_Cassette_1" sheetId="2" r:id="rId6"/>
+    <sheet name="PR_FLU_Ext_Tubes_Dropper_1" sheetId="4" r:id="rId7"/>
+    <sheet name="PR_FLU_Strerile_Swabs_1" sheetId="9" r:id="rId8"/>
+    <sheet name="PR_FSVA_Sterile_Swabs_1" sheetId="12" r:id="rId9"/>
+    <sheet name="PR_FSVA_Extraction_Tube_1" sheetId="13" r:id="rId10"/>
+    <sheet name="PR_FSV_Buffer_1" sheetId="7" r:id="rId11"/>
+    <sheet name="PR_FSV_Cassette_1" sheetId="6" r:id="rId12"/>
+    <sheet name="PR_FSVA_Buffer_1" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FLU_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">PR_FLU_Cassette_1!$A$1:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PR_FLU_Uncut_Sheet_1!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FLU_Extraction_Tubes_Dropper!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_FSV_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">PR_FSV_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">PR_FSVA_Buffer!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FLU_Strerile_Swabs!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_RSV_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_ADE_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">PR_FSVA_Sterile_Swabs!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">PR_FSVA_Extraction_Tube!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PR_FLU_Ext_Tubes_Dropper_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PR_FLU_Buffer_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_FSV_Cassette_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">PR_FSV_Buffer_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">PR_FSVA_Buffer_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">PR_FLU_Strerile_Swabs_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PR_RSV_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PR_ADE_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">PR_FSVA_Sterile_Swabs_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">PR_FSVA_Extraction_Tube_1!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PR_FLU_Uncut_Sheet_2!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
@@ -211,24 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,21 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -305,7 +275,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +305,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,18 +372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,7 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,55 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +456,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,43 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,26 +1000,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1097,16 +1077,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,127 +1121,127 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,10 +1265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9368,7 +9368,7 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -9883,7 +9883,7 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
